--- a/doc/KPM-project-data.xlsx
+++ b/doc/KPM-project-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mára\Škola\MPC-TIT\3.semestr\KPM\Cvičení\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilek\Desktop\KPM-project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3670BCB-799F-4F88-B878-641C3ACE574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE1076-11D7-4C98-B620-9AF2850AE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -786,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,15 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,16 +880,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,62 +955,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1075,62 +1011,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1186,62 +1067,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1297,62 +1123,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1408,62 +1179,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1519,62 +1235,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1632,62 +1293,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1745,62 +1351,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1858,62 +1409,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1971,62 +1467,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2087,10 +1528,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2098,12 +1536,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="cs-CZ"/>
-                  <a:t>Scenario</a:t>
+                  <a:rPr lang="cs-CZ" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50713783246729782"/>
+              <c:y val="0.81161649804620406"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2119,10 +1569,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2185,17 +1632,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="cs-CZ"/>
+                  <a:rPr lang="cs-CZ">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Throughput [kb/s]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="cs-CZ" baseline="0"/>
-                  <a:t> --&gt;</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6911111111111109E-2"/>
+              <c:y val="0.21558185185185186"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2225,7 +1679,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2243,10 +1697,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2351,57 +1802,19 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5039370078740156E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.88440507436570426"/>
+          <c:x val="0.12859560886941399"/>
+          <c:y val="5.0925857294630353E-2"/>
+          <c:w val="0.84597311577405632"/>
           <c:h val="0.73177420530766979"/>
         </c:manualLayout>
       </c:layout>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2419,65 +1832,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2536,65 +1894,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2653,65 +1956,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2770,65 +2018,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2887,65 +2080,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3004,65 +2142,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3123,65 +2206,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3242,65 +2270,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3361,65 +2334,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3480,65 +2398,10 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3591,12 +2454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="706728064"/>
         <c:axId val="706729024"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="706728064"/>
         <c:scaling>
@@ -3613,10 +2475,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3630,6 +2489,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45327425164971785"/>
+              <c:y val="0.83097416950325087"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3645,10 +2512,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3700,10 +2564,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3712,11 +2573,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="cs-CZ"/>
-                  <a:t>Packet loss [%] --&gt;</a:t>
+                  <a:t>Packet loss [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4536748432963947E-2"/>
+              <c:y val="0.25691679923065375"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3732,10 +2601,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3764,10 +2630,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3806,10 +2669,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3844,7 +2704,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
@@ -4952,13 +3816,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:rowOff>187641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>410850</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>136821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4988,13 +3852,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>372750</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>83481</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5287,53 +4151,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="12" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="12" width="14.5546875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="32">
         <v>0</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="33">
         <v>2</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <v>3</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="34">
         <v>4</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="33">
         <v>5</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="33">
         <v>6</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="33">
         <v>7</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="33">
         <v>8</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="34">
         <v>9</v>
       </c>
       <c r="M2" s="1"/>
@@ -5346,42 +4210,42 @@
       <c r="Q2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>6</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="3">
         <v>6</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="3">
         <v>6</v>
       </c>
       <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="3">
         <v>6</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="3">
         <v>6</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="6">
         <v>6</v>
       </c>
       <c r="M3" s="1"/>
@@ -5394,11 +4258,11 @@
       <c r="Q3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -5446,7 +4310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -5494,38 +4358,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>49153</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="3">
         <v>49153</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="3">
         <v>49153</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="3">
         <v>49153</v>
       </c>
       <c r="G6" s="6">
         <v>49153</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="3">
         <v>49153</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="3">
         <v>49153</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="3">
         <v>49153</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="3">
         <v>49153</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="6">
         <v>49153</v>
       </c>
       <c r="M6" s="1"/>
@@ -5538,42 +4402,42 @@
       <c r="Q6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="9">
         <v>49153</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>4000</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="3">
         <v>4000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="3">
         <v>4000</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="3">
         <v>4000</v>
       </c>
       <c r="G7" s="6">
         <v>4000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="3">
         <v>4000</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="3">
         <v>4000</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="3">
         <v>4000</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="3">
         <v>4000</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="6">
         <v>4000</v>
       </c>
       <c r="M7" s="1"/>
@@ -5586,11 +4450,11 @@
       <c r="Q7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="9">
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
@@ -5638,7 +4502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -5684,38 +4548,38 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>831.95799999999997</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <v>710.11400000000003</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="30">
         <v>720.49099999999999</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <v>745.07100000000003</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <v>355.08699999999999</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="30">
         <v>710.82500000000005</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="30">
         <v>819.86500000000001</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="30">
         <v>687.024</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="30">
         <v>710.82500000000005</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="31">
         <v>831.95799999999997</v>
       </c>
       <c r="M10" s="1"/>
@@ -5726,11 +4590,11 @@
       <c r="Q10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -5776,7 +4640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +4686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -5868,7 +4732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
@@ -5910,92 +4774,92 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>93</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="3">
         <v>52</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="3">
         <v>31</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="3">
         <v>6</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="3">
         <v>74</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="3">
         <v>6</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="6">
         <v>93</v>
       </c>
       <c r="M15" s="1"/>
       <c r="Q15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="36">
         <v>5.3757200000000003</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="37">
         <v>0.41124100000000002</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <v>3.5398200000000002</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="37">
         <v>2.0708099999999998</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="38">
         <v>0.41039700000000001</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="37">
         <v>0.41124100000000002</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="37">
         <v>5.8071999999999999</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="37">
         <v>5.1966299999999999</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="37">
         <v>0.41124100000000002</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="38">
         <v>5.3757200000000003</v>
       </c>
       <c r="M16" s="1"/>
       <c r="Q16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="36">
         <v>4.7280100000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
@@ -6015,27 +4879,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>1</v>
       </c>
@@ -6055,7 +4919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
@@ -6075,47 +4939,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>49153</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="3">
         <v>49153</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="3">
         <v>49153</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="3">
         <v>49153</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="6">
         <v>49153</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="3">
         <v>4000</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
@@ -6135,7 +4999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
@@ -6155,7 +5019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
@@ -6175,7 +5039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +5059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
@@ -6215,7 +5079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
@@ -6235,7 +5099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
@@ -6255,27 +5119,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="3">
         <v>100</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="3">
         <v>74</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="3">
         <v>6</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
@@ -6295,208 +5159,208 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="30" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="16" t="s">
         <v>84</v>
       </c>
     </row>
